--- a/biology/Botanique/Dyschoriste/Dyschoriste.xlsx
+++ b/biology/Botanique/Dyschoriste/Dyschoriste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dyschoriste Nees est un genre de plantes de la famille des Acanthaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des sous-espèces, espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (6 janvier 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (6 janvier 2018) :
 Dyschoriste adscendens (Hochst. ex Nees) Kuntze
 Dyschoriste albiflora Lindau
 Dyschoriste angusta (Gray) Small
@@ -635,14 +651,14 @@
 Dyschoriste vestita Benoist
 Dyschoriste xylopoda Kobuski
 Dyschoriste zambiana Vollesen
-Selon ITIS      (6 janvier 2018)[3] :
+Selon ITIS      (6 janvier 2018) :
 Dyschoriste angusta (A. Gray) Small
 Dyschoriste crenulata Kobuski
 Dyschoriste humistrata (Michx.) Kuntze
 Dyschoriste linearis (Torr. &amp; A. Gray) Kuntze
 Dyschoriste oblongifolia (Michx.) Kuntze
 Dyschoriste schiedeana (Nees) Kuntze
-Selon NCBI  (6 janvier 2018)[4] :
+Selon NCBI  (6 janvier 2018) :
 Dyschoriste albiflora
 Dyschoriste angusta
 Dyschoriste angustifolia
@@ -686,7 +702,7 @@
 Dyschoriste trichanthera
 Dyschoriste trichocalyx
 sous-espèce Dyschoriste trichocalyx subsp. verticillaris
-Selon The Plant List            (6 janvier 2018)[5] :
+Selon The Plant List            (6 janvier 2018) :
 Dyschoriste adscendens (Hochst. ex Nees) Kuntze
 Dyschoriste alba S.Moore
 Dyschoriste albiflora Lindau
@@ -789,7 +805,7 @@
 Dyschoriste vestita Benoist
 Dyschoriste volkensii (Lindau) C.B.Clarke
 Dyschoriste xylopoda Kobuski
-Selon Tropicos                                           (6 janvier 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (6 janvier 2018) (Attention liste brute contenant possiblement des synonymes) :
 Dyschoriste actinotricha Chiov.
 Dyschoriste adscendens (Hochst. ex Nees) Kuntze
 Dyschoriste affinis (Lindau) S. Moore
